--- a/data/trans_dic/P12A-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P12A-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo)</t>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>10,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,94%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,04%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 20,94</t>
+          <t>7,32; 17,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 22,87</t>
+          <t>8,63; 19,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,3; 24,2</t>
+          <t>6,38; 15,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,02; 14,81</t>
+          <t>7,72; 19,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,15; 22,68</t>
+          <t>7,16; 16,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,79; 12,73</t>
+          <t>5,61; 13,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,59; 15,68</t>
+          <t>6,17; 14,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,07; 19,98</t>
+          <t>10,98; 22,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 17,24</t>
+          <t>8,21; 14,4</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 14,79</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>7,28; 13,93</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>10,62; 19,51</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>18,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>21,15%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>18,08%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>15,53%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,62%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>18,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>15,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 20,21</t>
+          <t>12,43; 25,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,83; 19,82</t>
+          <t>14,13; 28,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 19,04</t>
+          <t>11,92; 25,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 23,4</t>
+          <t>15,19; 29,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,37; 20,95</t>
+          <t>12,56; 25,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 24,54</t>
+          <t>8,19; 18,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,05; 20,15</t>
+          <t>9,05; 20,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 18,33</t>
+          <t>10,56; 23,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 20,04</t>
+          <t>14,1; 23,13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>12,52; 21,36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>11,79; 19,88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13,95; 23,61</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,24%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>15,64%</t>
+          <t>9,73%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
+          <t>5,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,7%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24,62%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 24,22</t>
+          <t>2,16; 24,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,85; 47,34</t>
+          <t>9,15; 67,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,71; 50,9</t>
+          <t>13,98; 73,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 16,19</t>
+          <t>12,22; 74,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,76; 18,7</t>
+          <t>0,0; 12,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 18,24</t>
+          <t>2,4; 20,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 16,71</t>
+          <t>0,0; 15,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,52; 28,22</t>
+          <t>2,47; 23,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,47; 31,22</t>
+          <t>1,33; 14,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,75; 46,03</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,22; 45,45</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 49,47</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>19,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>12,93%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>10,26%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10,9%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>13,56%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,8%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>13,75%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>14,64%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>14,18%</t>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17,21%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,84; 17,42</t>
+          <t>10,5; 18,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,67; 20,53</t>
+          <t>13,46; 25,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12,01; 21,1</t>
+          <t>12,15; 24,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,1</t>
+          <t>14,29; 27,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,02; 19,15</t>
+          <t>9,84; 16,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 15,84</t>
+          <t>7,55; 13,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,71; 16,09</t>
+          <t>8,01; 14,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,41; 17,66</t>
+          <t>11,96; 19,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,88; 17,05</t>
+          <t>10,85; 15,91</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>11,7; 18,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 17,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>14,07; 21,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que convive con personas que tienen alguna limitación, discapacidad de tipo físico, sensorial o psíquico o mental (incluyéndose a sí mismo) (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>48449</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48284</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39547</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>66638</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>54628</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>38644</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39687</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>89039</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>103077</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>86928</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>79235</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>155677</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>31471; 73877</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31599; 71557</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24290; 60666</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>39640; 99004</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>36408; 81651</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23625; 56425</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>25122; 59677</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>61102; 125483</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>77052; 135244</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>64823; 116424</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>57402; 109849</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>113682; 208792</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>65827</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>65865</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56425</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>85989</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>76918</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>41539</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>46707</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>69860</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>142745</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>107405</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>103132</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>155849</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>44676; 93009</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44973; 90836</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>38454; 81484</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>61768; 120269</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>53408; 108500</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27705; 62386</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>30322; 67963</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45764; 100406</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>110651; 181539</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>82202; 140312</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>77560; 130721</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>117121; 198277</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>9231</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>26184</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32993</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>45985</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2325</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6095</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3501</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>10831</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>11556</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32279</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>36494</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>56816</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2198; 25355</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7287; 54098</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11967; 63222</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14596; 88704</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12759</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1954; 16405</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 12627</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2750; 26216</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2692; 28427</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12493; 74174</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13819; 76423</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22123; 114151</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>123507</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>140333</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>128965</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>198612</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>133871</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>86279</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>89896</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>169730</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>257378</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>226612</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>218861</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>368343</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>93573; 163834</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>102823; 191745</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>95881; 193138</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>148538; 283947</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>101842; 171749</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>63522; 112387</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>66069; 117412</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>131701; 215932</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>208979; 306444</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>187763; 291024</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>181813; 288815</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>301212; 470212</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
